--- a/Login/data.xlsx
+++ b/Login/data.xlsx
@@ -14,28 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Shrouk</t>
-  </si>
-  <si>
-    <t>pasdasdoj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
   </si>
+  <si>
+    <t>shrouk.ali@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,13 +63,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,7 +378,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,21 +389,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>521993</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Login/data.xlsx
+++ b/Login/data.xlsx
@@ -22,7 +22,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>shrouk.ali@gmail.com</t>
+    <t>shroukalaaali8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
